--- a/Implementation/Python/experiment3matching.xlsx
+++ b/Implementation/Python/experiment3matching.xlsx
@@ -765,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -839,10 +839,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -928,16 +928,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1115,19 +1115,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1148,13 +1148,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1207,22 +1207,22 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1237,16 +1237,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1302,28 +1302,28 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1335,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1394,25 +1394,25 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1424,22 +1424,22 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1489,25 +1489,25 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1519,22 +1519,22 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1584,25 +1584,25 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1614,25 +1614,25 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1679,25 +1679,25 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>164</v>
+        <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1709,25 +1709,25 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1774,25 +1774,25 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1804,25 +1804,25 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1866,31 +1866,31 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>192</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>202</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>169</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1899,22 +1899,22 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1961,28 +1961,28 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>203</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>233</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>221</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>171</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1991,28 +1991,28 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -2056,28 +2056,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>232</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>231</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>267</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>202</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -2086,25 +2086,25 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -2151,28 +2151,28 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>226</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>298</v>
+        <v>2</v>
       </c>
       <c r="F19" t="n">
-        <v>332</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>286</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2184,19 +2184,19 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2246,31 +2246,31 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>253</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>298</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>339</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>293</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -2279,22 +2279,22 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2341,52 +2341,52 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>286</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>348</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>355</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>317</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>259</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>141</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>

--- a/Implementation/Python/experiment3matching.xlsx
+++ b/Implementation/Python/experiment3matching.xlsx
@@ -839,10 +839,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -863,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -928,16 +928,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -952,13 +952,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1089,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -1115,19 +1115,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1207,22 +1207,22 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1240,16 +1240,16 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1302,25 +1302,25 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1394,25 +1394,25 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1430,16 +1430,16 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1489,25 +1489,25 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1519,28 +1519,28 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1584,25 +1584,25 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1614,25 +1614,25 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1679,25 +1679,25 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>128</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1709,22 +1709,22 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1774,25 +1774,25 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1807,22 +1807,22 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1866,28 +1866,28 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>135</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>216</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1899,25 +1899,25 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1961,28 +1961,28 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>227</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>222</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>215</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>164</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1994,25 +1994,25 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -2027,7 +2027,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z17" t="n">
         <v>0</v>
@@ -2056,28 +2056,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>202</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>247</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>209</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -2089,25 +2089,25 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
@@ -2151,28 +2151,28 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>237</v>
       </c>
       <c r="E19" t="n">
-        <v>2</v>
+        <v>303</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>304</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>299</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2184,25 +2184,25 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2246,28 +2246,28 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>326</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>308</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>302</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>237</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2276,28 +2276,28 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2341,58 +2341,58 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>179</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>295</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>371</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>342</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>241</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>156</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>

--- a/Implementation/Python/experiment3matching.xlsx
+++ b/Implementation/Python/experiment3matching.xlsx
@@ -836,7 +836,7 @@
         <v>111</v>
       </c>
       <c r="H5" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I5" t="n">
         <v>90</v>
@@ -854,7 +854,7 @@
         <v>12</v>
       </c>
       <c r="N5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O5" t="n">
         <v>16</v>
@@ -922,10 +922,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F6" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G6" t="n">
         <v>162</v>
@@ -937,7 +937,7 @@
         <v>93</v>
       </c>
       <c r="J6" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K6" t="n">
         <v>27</v>
@@ -979,7 +979,7 @@
         <v>15</v>
       </c>
       <c r="X6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y6" t="n">
         <v>19</v>
@@ -1017,16 +1017,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F7" t="n">
         <v>281</v>
       </c>
       <c r="G7" t="n">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H7" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I7" t="n">
         <v>198</v>
@@ -1041,10 +1041,10 @@
         <v>25</v>
       </c>
       <c r="M7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O7" t="n">
         <v>32</v>
@@ -1074,7 +1074,7 @@
         <v>23</v>
       </c>
       <c r="X7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y7" t="n">
         <v>7</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="E8" t="n">
         <v>384</v>
@@ -1118,19 +1118,19 @@
         <v>357</v>
       </c>
       <c r="G8" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H8" t="n">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I8" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J8" t="n">
         <v>96</v>
       </c>
       <c r="K8" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L8" t="n">
         <v>43</v>
@@ -1204,7 +1204,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="E9" t="n">
         <v>428</v>
@@ -1213,19 +1213,19 @@
         <v>351</v>
       </c>
       <c r="G9" t="n">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H9" t="n">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="I9" t="n">
         <v>145</v>
       </c>
       <c r="J9" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K9" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L9" t="n">
         <v>44</v>
@@ -1237,7 +1237,7 @@
         <v>41</v>
       </c>
       <c r="O9" t="n">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="P9" t="n">
         <v>479</v>
@@ -1273,7 +1273,7 @@
         <v>25</v>
       </c>
       <c r="AA9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AB9" t="n">
         <v>34</v>
@@ -1299,13 +1299,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E10" t="n">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="F10" t="n">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G10" t="n">
         <v>338</v>
@@ -1314,7 +1314,7 @@
         <v>225</v>
       </c>
       <c r="I10" t="n">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J10" t="n">
         <v>98</v>
@@ -1326,10 +1326,10 @@
         <v>31</v>
       </c>
       <c r="M10" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N10" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O10" t="n">
         <v>389</v>
@@ -1394,25 +1394,25 @@
         <v>647</v>
       </c>
       <c r="D11" t="n">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="E11" t="n">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F11" t="n">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="G11" t="n">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H11" t="n">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I11" t="n">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J11" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K11" t="n">
         <v>41</v>
@@ -1424,7 +1424,7 @@
         <v>50</v>
       </c>
       <c r="N11" t="n">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O11" t="n">
         <v>653</v>
@@ -1454,7 +1454,7 @@
         <v>24</v>
       </c>
       <c r="X11" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y11" t="n">
         <v>35</v>
@@ -1486,40 +1486,40 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D12" t="n">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="E12" t="n">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F12" t="n">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="G12" t="n">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="H12" t="n">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="I12" t="n">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J12" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K12" t="n">
         <v>51</v>
       </c>
       <c r="L12" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M12" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N12" t="n">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="O12" t="n">
         <v>757</v>
@@ -1537,13 +1537,13 @@
         <v>765</v>
       </c>
       <c r="T12" t="n">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="U12" t="n">
         <v>72</v>
       </c>
       <c r="V12" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W12" t="n">
         <v>15</v>
@@ -1581,43 +1581,43 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D13" t="n">
         <v>676</v>
       </c>
       <c r="E13" t="n">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="F13" t="n">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="G13" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="H13" t="n">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I13" t="n">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J13" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K13" t="n">
         <v>45</v>
       </c>
       <c r="L13" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M13" t="n">
         <v>90</v>
       </c>
       <c r="N13" t="n">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="O13" t="n">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="P13" t="n">
         <v>861</v>
@@ -1626,10 +1626,10 @@
         <v>896</v>
       </c>
       <c r="R13" t="n">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="S13" t="n">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="T13" t="n">
         <v>689</v>
@@ -1676,28 +1676,28 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="D14" t="n">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="E14" t="n">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="F14" t="n">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="G14" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="H14" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I14" t="n">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="J14" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K14" t="n">
         <v>36</v>
@@ -1706,7 +1706,7 @@
         <v>24</v>
       </c>
       <c r="M14" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N14" t="n">
         <v>639</v>
@@ -1724,7 +1724,7 @@
         <v>882</v>
       </c>
       <c r="S14" t="n">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="T14" t="n">
         <v>749</v>
@@ -1771,25 +1771,25 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="D15" t="n">
-        <v>658</v>
+        <v>667</v>
       </c>
       <c r="E15" t="n">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="F15" t="n">
         <v>456</v>
       </c>
       <c r="G15" t="n">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="H15" t="n">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="I15" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J15" t="n">
         <v>105</v>
@@ -1798,10 +1798,10 @@
         <v>34</v>
       </c>
       <c r="L15" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M15" t="n">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="N15" t="n">
         <v>864</v>
@@ -1813,7 +1813,7 @@
         <v>939</v>
       </c>
       <c r="Q15" t="n">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="R15" t="n">
         <v>950</v>
@@ -1866,37 +1866,37 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="D16" t="n">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="E16" t="n">
-        <v>564</v>
+        <v>574</v>
       </c>
       <c r="F16" t="n">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="G16" t="n">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="H16" t="n">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="I16" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J16" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K16" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L16" t="n">
         <v>32</v>
       </c>
       <c r="M16" t="n">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="N16" t="n">
         <v>890</v>
@@ -1961,34 +1961,34 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="D17" t="n">
-        <v>727</v>
+        <v>714</v>
       </c>
       <c r="E17" t="n">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="F17" t="n">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="G17" t="n">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="H17" t="n">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I17" t="n">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="J17" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K17" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L17" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M17" t="n">
         <v>754</v>
@@ -2033,7 +2033,7 @@
         <v>271</v>
       </c>
       <c r="AA17" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AB17" t="n">
         <v>245</v>
@@ -2056,28 +2056,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="D18" t="n">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="E18" t="n">
-        <v>658</v>
+        <v>638</v>
       </c>
       <c r="F18" t="n">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="G18" t="n">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="H18" t="n">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="I18" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J18" t="n">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K18" t="n">
         <v>38</v>
@@ -2086,7 +2086,7 @@
         <v>59</v>
       </c>
       <c r="M18" t="n">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="N18" t="n">
         <v>983</v>
@@ -2151,28 +2151,28 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="D19" t="n">
-        <v>705</v>
+        <v>714</v>
       </c>
       <c r="E19" t="n">
-        <v>619</v>
+        <v>628</v>
       </c>
       <c r="F19" t="n">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="G19" t="n">
-        <v>479</v>
+        <v>494</v>
       </c>
       <c r="H19" t="n">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="I19" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="J19" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K19" t="n">
         <v>30</v>
@@ -2190,7 +2190,7 @@
         <v>995</v>
       </c>
       <c r="P19" t="n">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="Q19" t="n">
         <v>990</v>
@@ -2249,22 +2249,22 @@
         <v>851</v>
       </c>
       <c r="D20" t="n">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="E20" t="n">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F20" t="n">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="G20" t="n">
-        <v>438</v>
+        <v>457</v>
       </c>
       <c r="H20" t="n">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="I20" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J20" t="n">
         <v>95</v>
@@ -2279,7 +2279,7 @@
         <v>851</v>
       </c>
       <c r="N20" t="n">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="O20" t="n">
         <v>998</v>
@@ -2288,7 +2288,7 @@
         <v>998</v>
       </c>
       <c r="Q20" t="n">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="R20" t="n">
         <v>992</v>
@@ -2306,7 +2306,7 @@
         <v>69</v>
       </c>
       <c r="W20" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="X20" t="n">
         <v>171</v>
@@ -2341,25 +2341,25 @@
         <v>897</v>
       </c>
       <c r="C21" t="n">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="D21" t="n">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="E21" t="n">
         <v>646</v>
       </c>
       <c r="F21" t="n">
-        <v>547</v>
+        <v>566</v>
       </c>
       <c r="G21" t="n">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="H21" t="n">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="I21" t="n">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="J21" t="n">
         <v>99</v>
@@ -2368,7 +2368,7 @@
         <v>38</v>
       </c>
       <c r="L21" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M21" t="n">
         <v>977</v>
@@ -2386,10 +2386,10 @@
         <v>995</v>
       </c>
       <c r="R21" t="n">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="S21" t="n">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="T21" t="n">
         <v>841</v>
@@ -2398,7 +2398,7 @@
         <v>128</v>
       </c>
       <c r="V21" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W21" t="n">
         <v>108</v>
